--- a/data/structure.xlsx
+++ b/data/structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wding/Projects/Github/bmzip/bmzip/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wding/Projects/Github/czip/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7D499-4706-CA49-9C1C-E90307ED208C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BEEB71-487A-3C4D-A673-E0C00B47B689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{44CE7D83-8765-4041-8F58-EDBF1CDF0E40}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{44CE7D83-8765-4041-8F58-EDBF1CDF0E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>ballc</t>
   </si>
   <si>
-    <t>mz</t>
-  </si>
-  <si>
     <t>.tsv.gz</t>
   </si>
   <si>
@@ -458,6 +455,9 @@
   </si>
   <si>
     <t>Quickly Merge?</t>
+  </si>
+  <si>
+    <t>cz</t>
   </si>
 </sst>
 </file>
@@ -1162,87 +1162,153 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1253,12 +1319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,71 +1336,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1679,10 +1679,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="69"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="38" t="s">
         <v>54</v>
       </c>
@@ -1697,14 +1697,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="39"/>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="39"/>
@@ -1861,22 +1861,22 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="24"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="24"/>
@@ -1915,12 +1915,12 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
@@ -1987,22 +1987,22 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="41"/>
@@ -2042,21 +2042,21 @@
     </row>
     <row r="25" spans="2:7" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="48"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="36"/>
@@ -2129,60 +2129,60 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="80"/>
     </row>
     <row r="32" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
     </row>
     <row r="33" spans="2:7" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="74"/>
     </row>
     <row r="34" spans="2:7" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B34" s="36"/>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
     </row>
     <row r="35" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="50"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="52"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="80"/>
     </row>
     <row r="36" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="40"/>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="82" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="62"/>
@@ -2303,53 +2303,60 @@
       <c r="G44" s="64"/>
     </row>
     <row r="45" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="2:7" ht="11" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
     </row>
     <row r="49" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
     <mergeCell ref="B48:G48"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="C33:G33"/>
@@ -2357,18 +2364,11 @@
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2396,10 +2396,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="69"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="32" t="s">
         <v>54</v>
       </c>
@@ -2414,14 +2414,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
@@ -2533,13 +2533,13 @@
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
@@ -2578,22 +2578,22 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="99"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="24"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="24"/>
@@ -2632,12 +2632,12 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="99"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
@@ -2659,13 +2659,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
@@ -2704,22 +2704,22 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="B22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="2:7" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="64"/>
@@ -2730,48 +2730,55 @@
       <c r="G23" s="64"/>
     </row>
     <row r="24" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="2:7" ht="11" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
     </row>
     <row r="26" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="28" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B22:G22"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C13:G13"/>
@@ -2779,13 +2786,6 @@
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2813,10 +2813,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="69"/>
+      <c r="C1" s="91"/>
       <c r="D1" s="38" t="s">
         <v>54</v>
       </c>
@@ -2831,14 +2831,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="41"/>
@@ -2878,21 +2878,21 @@
     </row>
     <row r="5" spans="2:7" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="36"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
@@ -2965,60 +2965,60 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
     </row>
     <row r="12" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="55"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="13" spans="2:7" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="2:7" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
     </row>
     <row r="15" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40"/>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="37"/>
@@ -3057,7 +3057,7 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="82" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="62"/>
@@ -3132,6 +3132,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -3139,11 +3144,6 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3153,99 +3153,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8BC542-D28C-3441-A474-4F512B93E05C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.5" style="81" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="80" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="80" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="80"/>
+    <col min="1" max="1" width="40.5" style="43" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="42" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="90" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="D1" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="91" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="22" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="22" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="D2" s="46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
+      <c r="B3" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="C3" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
+      <c r="D5" s="47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="83" t="s">
+      <c r="B6" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="C6" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="50" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="86" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -3258,8 +3258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347E119F-81BE-9B46-B433-10B817C4C418}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3269,165 +3269,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="J1" s="99" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="J1" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
     </row>
     <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="87" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="D2" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="E2" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="F2" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="G2" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="87" t="s">
+      <c r="H2" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="87" t="s">
+      <c r="J2" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="101" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="101" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="21" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="93" t="s">
+      <c r="C3" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="102" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="102" t="s">
-        <v>107</v>
       </c>
       <c r="K3" s="102"/>
       <c r="L3" s="102"/>
       <c r="M3" s="102"/>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="E4" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="J4" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="93" t="s">
+      <c r="C5" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="K4" s="93" t="s">
+      <c r="D5" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="L4" s="93" t="s">
+      <c r="E5" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="F5" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="58" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="96" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="100" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" s="100" t="s">
-        <v>106</v>
+      <c r="J5" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/data/structure.xlsx
+++ b/data/structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wding/Projects/Github/czip/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BEEB71-487A-3C4D-A673-E0C00B47B689}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3867960B-5EF2-4A47-A7B6-1A324F352BAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{44CE7D83-8765-4041-8F58-EDBF1CDF0E40}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="5" xr2:uid="{44CE7D83-8765-4041-8F58-EDBF1CDF0E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="chunk" sheetId="5" r:id="rId3"/>
     <sheet name="compare" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="real_data" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="128">
   <si>
     <t>EOF</t>
   </si>
@@ -459,12 +460,105 @@
   <si>
     <t>cz</t>
   </si>
+  <si>
+    <t>allc.tsv.gz size</t>
+  </si>
+  <si>
+    <t>No. of rows</t>
+  </si>
+  <si>
+    <t>No. of cells</t>
+  </si>
+  <si>
+    <t>.cz size</t>
+  </si>
+  <si>
+    <t>611 bytes</t>
+  </si>
+  <si>
+    <t>141 M</t>
+  </si>
+  <si>
+    <t>3 M</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>2895 G</t>
+  </si>
+  <si>
+    <t>CG.cz (merge strand)</t>
+  </si>
+  <si>
+    <t>512 K</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 M </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(21.3%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">610 G </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(21.1%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 M </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1.4%)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">37 G </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1.3%)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -567,6 +661,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1037,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1222,6 +1323,99 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,99 +1437,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,6 +1444,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1679,10 +1789,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="91"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="38" t="s">
         <v>54</v>
       </c>
@@ -1697,14 +1807,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="39"/>
@@ -1816,13 +1926,13 @@
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="39"/>
@@ -1861,22 +1971,22 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="24"/>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="24"/>
@@ -1915,12 +2025,12 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
@@ -1942,13 +2052,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
@@ -1987,22 +2097,22 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
     </row>
     <row r="22" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="88"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="41"/>
@@ -2042,21 +2152,21 @@
     </row>
     <row r="25" spans="2:7" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="26" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="77"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="84"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="36"/>
@@ -2129,60 +2239,60 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="80"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
     </row>
     <row r="32" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="88"/>
     </row>
     <row r="33" spans="2:7" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
     </row>
     <row r="34" spans="2:7" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B34" s="36"/>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="84"/>
     </row>
     <row r="35" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="80"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64"/>
     </row>
     <row r="36" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="40"/>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
@@ -2221,14 +2331,14 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="94"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="36"/>
@@ -2250,13 +2360,13 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="36"/>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="36"/>
@@ -2295,56 +2405,68 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
     </row>
     <row r="45" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="98"/>
     </row>
     <row r="46" spans="2:7" ht="11" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="68" t="s">
+      <c r="B46" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
     </row>
     <row r="47" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="65" t="s">
+      <c r="B47" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="98"/>
     </row>
     <row r="48" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
     </row>
     <row r="49" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:G2"/>
@@ -2357,18 +2479,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2396,10 +2506,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="91"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="32" t="s">
         <v>54</v>
       </c>
@@ -2414,14 +2524,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
@@ -2533,13 +2643,13 @@
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
@@ -2578,22 +2688,22 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="24"/>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="75"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="24"/>
@@ -2632,12 +2742,12 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="97"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
@@ -2659,13 +2769,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="83" t="s">
+      <c r="C18" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
@@ -2704,74 +2814,81 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
     </row>
     <row r="22" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="98"/>
     </row>
     <row r="23" spans="2:7" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
     </row>
     <row r="24" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
     </row>
     <row r="25" spans="2:7" ht="11" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
     </row>
     <row r="26" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="67"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
     </row>
     <row r="27" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
     </row>
     <row r="28" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B12:G12"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B21:G21"/>
@@ -2779,13 +2896,6 @@
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2813,10 +2923,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="91"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="38" t="s">
         <v>54</v>
       </c>
@@ -2831,14 +2941,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="41"/>
@@ -2878,21 +2988,21 @@
     </row>
     <row r="5" spans="2:7" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="36"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="90"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="6" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="84"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
@@ -2965,60 +3075,60 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="2:7" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
     </row>
     <row r="14" spans="2:7" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="84"/>
     </row>
     <row r="15" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
     </row>
     <row r="16" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40"/>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="37"/>
@@ -3057,14 +3167,14 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="36"/>
@@ -3086,13 +3196,13 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="36"/>
@@ -3132,11 +3242,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B1:C1"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C13:G13"/>
@@ -3144,6 +3249,11 @@
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3258,7 +3368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347E119F-81BE-9B46-B433-10B817C4C418}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3439,4 +3549,96 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A847CD8C-47C2-FF49-9AC5-8E1766181E94}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45">
+        <v>1</v>
+      </c>
+      <c r="B2" s="103">
+        <v>39136105</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45">
+        <v>66</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="104">
+        <v>24514</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/structure.xlsx
+++ b/data/structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wding/Projects/Github/czip/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3867960B-5EF2-4A47-A7B6-1A324F352BAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C691DFF1-6433-1247-B12A-4F72E495D8E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="5" xr2:uid="{44CE7D83-8765-4041-8F58-EDBF1CDF0E40}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{44CE7D83-8765-4041-8F58-EDBF1CDF0E40}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="compare" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
     <sheet name="real_data" sheetId="7" r:id="rId6"/>
+    <sheet name="cost" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="137">
   <si>
     <t>EOF</t>
   </si>
@@ -553,12 +554,81 @@
       <t>(1.3%)</t>
     </r>
   </si>
+  <si>
+    <t>610 G</t>
+  </si>
+  <si>
+    <t>Reduction</t>
+  </si>
+  <si>
+    <t>2,4514 cells</t>
+  </si>
+  <si>
+    <t>1,000,000 cells</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>115 T</t>
+  </si>
+  <si>
+    <t>24 T</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GCP Cost ($ per month, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF002060"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Standard</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GCP Cost ($ per month, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Archive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,8 +738,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -697,6 +781,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1323,6 +1419,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1444,15 +1567,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1789,10 +1903,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="38" t="s">
         <v>54</v>
       </c>
@@ -1807,14 +1921,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="39"/>
@@ -1926,13 +2040,13 @@
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="39"/>
@@ -1971,22 +2085,22 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="24"/>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="24"/>
@@ -2025,12 +2139,12 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
@@ -2052,13 +2166,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
@@ -2097,22 +2211,22 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="41"/>
@@ -2152,21 +2266,21 @@
     </row>
     <row r="25" spans="2:7" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="36"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="84"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="36"/>
@@ -2239,60 +2353,60 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="2:7" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="36"/>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="88"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="97"/>
     </row>
     <row r="33" spans="2:7" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="36"/>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="90"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="99"/>
     </row>
     <row r="34" spans="2:7" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B34" s="36"/>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="84"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="93"/>
     </row>
     <row r="35" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="73"/>
     </row>
     <row r="36" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="40"/>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="37"/>
@@ -2331,14 +2445,14 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="94"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="103"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="36"/>
@@ -2360,13 +2474,13 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="36"/>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="103"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="36"/>
@@ -2405,52 +2519,52 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
     </row>
     <row r="45" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="96" t="s">
+      <c r="B45" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="98"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="107"/>
     </row>
     <row r="46" spans="2:7" ht="11" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
     </row>
     <row r="47" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="98"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="107"/>
     </row>
     <row r="48" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="94"/>
     </row>
     <row r="49" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2506,10 +2620,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="32" t="s">
         <v>54</v>
       </c>
@@ -2524,14 +2638,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="29"/>
@@ -2643,13 +2757,13 @@
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="29"/>
@@ -2688,22 +2802,22 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="24"/>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="24"/>
@@ -2742,12 +2856,12 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="29"/>
@@ -2769,13 +2883,13 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
@@ -2814,70 +2928,70 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="14" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
     </row>
     <row r="23" spans="2:7" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
     </row>
     <row r="24" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
     </row>
     <row r="25" spans="2:7" ht="11" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
     </row>
     <row r="26" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="85" t="s">
+      <c r="B27" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
     </row>
     <row r="28" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2923,10 +3037,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="74"/>
       <c r="D1" s="38" t="s">
         <v>54</v>
       </c>
@@ -2941,14 +3055,14 @@
       </c>
     </row>
     <row r="2" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="41"/>
@@ -2988,21 +3102,21 @@
     </row>
     <row r="5" spans="2:7" ht="11" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="36"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="2:7" ht="19" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="93"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
@@ -3075,60 +3189,60 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" ht="7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
     </row>
     <row r="12" spans="2:7" ht="20" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="36"/>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
     </row>
     <row r="13" spans="2:7" ht="13" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="36"/>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
     </row>
     <row r="14" spans="2:7" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="84"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="93"/>
     </row>
     <row r="15" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
     </row>
     <row r="16" spans="2:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="40"/>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="37"/>
@@ -3167,14 +3281,14 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="36"/>
@@ -3196,13 +3310,13 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="102" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="103"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="36"/>
@@ -3380,21 +3494,21 @@
   <sheetData>
     <row r="1" spans="1:13" ht="24" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="59"/>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="J1" s="101" t="s">
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="J1" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
     </row>
     <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
@@ -3457,12 +3571,12 @@
       <c r="H3" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="102" t="s">
+      <c r="J3" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="54" t="s">
@@ -3555,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A847CD8C-47C2-FF49-9AC5-8E1766181E94}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -3570,19 +3684,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="64" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3590,7 +3704,7 @@
       <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="103">
+      <c r="B2" s="62">
         <v>39136105</v>
       </c>
       <c r="C2" s="45" t="s">
@@ -3621,7 +3735,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104">
+      <c r="A4" s="63">
         <v>24514</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -3641,4 +3755,138 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AB2CAB-9965-0540-A670-9D8FEADB3066}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="42"/>
+    <col min="4" max="4" width="18" style="42" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="66">
+        <v>0.78900000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="65">
+        <v>57.8</v>
+      </c>
+      <c r="C3" s="65">
+        <v>12.1</v>
+      </c>
+      <c r="D3" s="66">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="65">
+        <v>3.47</v>
+      </c>
+      <c r="C4" s="65">
+        <v>0.73</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0.78959999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="66">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="65">
+        <v>2361.8200000000002</v>
+      </c>
+      <c r="C10" s="65">
+        <v>497.57</v>
+      </c>
+      <c r="D10" s="66">
+        <v>0.7893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="65">
+        <v>141.71</v>
+      </c>
+      <c r="C11" s="65">
+        <v>29.86</v>
+      </c>
+      <c r="D11" s="66">
+        <v>0.7893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>